--- a/nested_checklist.xlsx
+++ b/nested_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshmavj\Desktop\Dash_Design_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC6DD3E-26BB-477B-B9C0-86435BD67F5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020D3B2-FF8B-4FC2-8CDE-B87D1D8848E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{7AFA0A77-515C-485B-B22A-2C0F7CBD4C1A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="209">
   <si>
     <t>Service Function</t>
   </si>
@@ -545,9 +545,6 @@
     <t>Family or friend</t>
   </si>
   <si>
-    <t>IT solution requiring human support (e.g. telemedicine)</t>
-  </si>
-  <si>
     <t>Home modification</t>
   </si>
   <si>
@@ -567,6 +564,96 @@
   </si>
   <si>
     <t>Mobility needs</t>
+  </si>
+  <si>
+    <t>Family or Friend who is willing</t>
+  </si>
+  <si>
+    <t>Red Cross Helpline</t>
+  </si>
+  <si>
+    <t>Community health post (CHP)</t>
+  </si>
+  <si>
+    <t>Changi Simei Community Care Center</t>
+  </si>
+  <si>
+    <t>Wellbeing coordinator</t>
+  </si>
+  <si>
+    <t>Counselling Centre / Support Group</t>
+  </si>
+  <si>
+    <t>Refer to MSW</t>
+  </si>
+  <si>
+    <t>Stroke (Stroke Support Station, CGH MSS)</t>
+  </si>
+  <si>
+    <t>Breast Cancer (CGH MSS)</t>
+  </si>
+  <si>
+    <t>Parkinson (Parkinson Society Singapore, CGH MSS)</t>
+  </si>
+  <si>
+    <t>Heart Failure (CGH MSS)</t>
+  </si>
+  <si>
+    <t>Telemedicine (teleconsultation services)</t>
+  </si>
+  <si>
+    <t>MIC at Home</t>
+  </si>
+  <si>
+    <t>Geriatric SOC</t>
+  </si>
+  <si>
+    <t>HealthierSG Primary Care Physician</t>
+  </si>
+  <si>
+    <t>Private GP that patient sees regularly</t>
+  </si>
+  <si>
+    <t>Polyclinic</t>
+  </si>
+  <si>
+    <t>Home Hospice</t>
+  </si>
+  <si>
+    <t>New referral for nursing home (Refer to MSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellbeing coordinator </t>
+  </si>
+  <si>
+    <t>Caregiver / patient courses</t>
+  </si>
+  <si>
+    <t>Inpatient Education</t>
+  </si>
+  <si>
+    <t>Outpatient Education</t>
+  </si>
+  <si>
+    <t>Hospice day care</t>
+  </si>
+  <si>
+    <t>Home hospice</t>
+  </si>
+  <si>
+    <t>EAGLEcare</t>
+  </si>
+  <si>
+    <t>Inpatient Hospice</t>
+  </si>
+  <si>
+    <t>General Practioner Group</t>
+  </si>
+  <si>
+    <t>Specialist Outpatient Clinic</t>
+  </si>
+  <si>
+    <t>SPD</t>
   </si>
 </sst>
 </file>
@@ -629,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -689,6 +776,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -731,16 +829,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6922,10 +7016,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EB169F-E9D2-4A55-A0AE-6164311762E5}">
-  <dimension ref="A1:C464"/>
+  <dimension ref="A1:C553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6936,13 +7030,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6951,10 +7045,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7270,10 +7364,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -7324,11 +7418,11 @@
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
+      <c r="B36" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -7338,8 +7432,8 @@
       <c r="B37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>41</v>
+      <c r="C37" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -7350,7 +7444,7 @@
         <v>76</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -7360,8 +7454,8 @@
       <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>43</v>
+      <c r="C39" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -7371,8 +7465,8 @@
       <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>44</v>
+      <c r="C40" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -7383,7 +7477,7 @@
         <v>76</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -7394,7 +7488,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -7405,7 +7499,7 @@
         <v>76</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -7416,7 +7510,7 @@
         <v>76</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -7427,7 +7521,7 @@
         <v>76</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -7438,7 +7532,7 @@
         <v>76</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -7446,10 +7540,10 @@
         <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -7457,10 +7551,10 @@
         <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -7468,10 +7562,10 @@
         <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -7479,10 +7573,10 @@
         <v>33</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -7490,10 +7584,10 @@
         <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -7501,10 +7595,10 @@
         <v>33</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -7512,10 +7606,10 @@
         <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>51</v>
+        <v>95</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -7523,10 +7617,10 @@
         <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>52</v>
+        <v>95</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -7536,8 +7630,8 @@
       <c r="B55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>40</v>
+      <c r="C55" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -7548,7 +7642,7 @@
         <v>77</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -7558,8 +7652,8 @@
       <c r="B57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>53</v>
+      <c r="C57" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -7569,8 +7663,8 @@
       <c r="B58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>54</v>
+      <c r="C58" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -7581,7 +7675,7 @@
         <v>77</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -7591,8 +7685,8 @@
       <c r="B60" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>56</v>
+      <c r="C60" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -7600,10 +7694,10 @@
         <v>33</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -7611,10 +7705,10 @@
         <v>33</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -7622,10 +7716,10 @@
         <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>66</v>
+        <v>97</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -7636,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -7647,7 +7741,7 @@
         <v>80</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -7657,8 +7751,8 @@
       <c r="B66" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>69</v>
+      <c r="C66" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -7668,8 +7762,8 @@
       <c r="B67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>70</v>
+      <c r="C67" s="20" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -7679,8 +7773,8 @@
       <c r="B68" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>71</v>
+      <c r="C68" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -7690,8 +7784,8 @@
       <c r="B69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>72</v>
+      <c r="C69" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -7699,10 +7793,10 @@
         <v>33</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -7712,8 +7806,8 @@
       <c r="B71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="20" t="s">
-        <v>7</v>
+      <c r="C71" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -7724,7 +7818,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -7732,10 +7826,10 @@
         <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -7746,7 +7840,7 @@
         <v>10</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -7756,8 +7850,8 @@
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="20" t="s">
-        <v>13</v>
+      <c r="C75" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -7768,7 +7862,7 @@
         <v>10</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -7779,7 +7873,7 @@
         <v>10</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -7790,7 +7884,7 @@
         <v>10</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -7801,18 +7895,18 @@
         <v>10</v>
       </c>
       <c r="C79" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="20" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -7823,7 +7917,7 @@
         <v>94</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -7831,10 +7925,10 @@
         <v>170</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -7842,10 +7936,10 @@
         <v>170</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -7853,10 +7947,10 @@
         <v>170</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -7864,10 +7958,10 @@
         <v>170</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -7878,7 +7972,7 @@
         <v>10</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -7889,7 +7983,7 @@
         <v>10</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -7900,7 +7994,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -7911,7 +8005,7 @@
         <v>10</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -7919,10 +8013,10 @@
         <v>170</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -7930,10 +8024,10 @@
         <v>170</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -7941,10 +8035,10 @@
         <v>170</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -7952,10 +8046,10 @@
         <v>170</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -7963,10 +8057,10 @@
         <v>170</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -7974,10 +8068,10 @@
         <v>170</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -7988,7 +8082,7 @@
         <v>76</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -7999,7 +8093,7 @@
         <v>76</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -8010,7 +8104,7 @@
         <v>76</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -8021,7 +8115,7 @@
         <v>76</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -8032,7 +8126,7 @@
         <v>76</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -8043,7 +8137,7 @@
         <v>76</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -8051,10 +8145,10 @@
         <v>170</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -8062,10 +8156,10 @@
         <v>170</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -8073,10 +8167,10 @@
         <v>170</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -8084,10 +8178,10 @@
         <v>170</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -8095,10 +8189,10 @@
         <v>170</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -8106,10 +8200,10 @@
         <v>170</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -8120,7 +8214,7 @@
         <v>77</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -8131,7 +8225,7 @@
         <v>77</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -8139,10 +8233,10 @@
         <v>170</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -8150,10 +8244,10 @@
         <v>170</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -8161,10 +8255,10 @@
         <v>170</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -8172,10 +8266,10 @@
         <v>170</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -8183,10 +8277,10 @@
         <v>170</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -8194,10 +8288,10 @@
         <v>170</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -8205,10 +8299,10 @@
         <v>170</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -8216,10 +8310,10 @@
         <v>170</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -8227,10 +8321,10 @@
         <v>170</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -8238,10 +8332,10 @@
         <v>170</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -8249,10 +8343,10 @@
         <v>170</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -8260,21 +8354,21 @@
         <v>170</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>60</v>
+        <v>98</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -8282,10 +8376,10 @@
         <v>170</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -8293,10 +8387,10 @@
         <v>170</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -8304,10 +8398,10 @@
         <v>170</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -8315,10 +8409,10 @@
         <v>170</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -8326,197 +8420,197 @@
         <v>170</v>
       </c>
       <c r="B127" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="C138" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C142" s="16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B143" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>15</v>
+      <c r="B143" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B144" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>16</v>
+      <c r="B144" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -8524,10 +8618,10 @@
         <v>102</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>17</v>
+        <v>78</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -8535,10 +8629,10 @@
         <v>102</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -8546,10 +8640,10 @@
         <v>102</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -8557,10 +8651,10 @@
         <v>102</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -8568,21 +8662,21 @@
         <v>102</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B150" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>41</v>
+      <c r="B150" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -8590,10 +8684,10 @@
         <v>102</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>53</v>
+        <v>99</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -8601,10 +8695,10 @@
         <v>102</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>54</v>
+        <v>99</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -8612,10 +8706,10 @@
         <v>102</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>55</v>
+        <v>99</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -8623,32 +8717,32 @@
         <v>102</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>56</v>
+        <v>99</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B155" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B155" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C156" s="24" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -8656,10 +8750,10 @@
         <v>102</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -8667,1000 +8761,1000 @@
         <v>102</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B159" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C159" s="16" t="s">
+      <c r="A159" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C164" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B161" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B162" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C162" s="16" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C166" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B163" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C163" s="16" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C167" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C164" s="16" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C168" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B165" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C165" s="16" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C169" s="20" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>171</v>
+        <v>102</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B171" s="14" t="s">
-        <v>9</v>
+        <v>102</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C172" s="20" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B175" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>11</v>
+        <v>102</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B177" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177" s="14" t="s">
-        <v>12</v>
+        <v>102</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B178" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B179" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>14</v>
+        <v>102</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B180" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>15</v>
+        <v>102</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B181" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>16</v>
+        <v>102</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B182" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>17</v>
+        <v>102</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C183" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C185" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B184" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C184" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B185" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B186" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>38</v>
+      <c r="A186" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B187" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>39</v>
+      <c r="A187" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B188" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C188" s="14" t="s">
+      <c r="A188" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C196" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B189" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C189" s="20" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C197" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B190" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C190" s="20" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C198" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C191" s="20" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C199" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B192" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C192" s="14" t="s">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C200" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B193" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C193" s="14" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C201" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B194" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C194" s="14" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C202" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B195" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C195" s="19" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C203" s="16" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B196" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C196" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B197" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B198" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C198" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B199" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C199" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C202" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C203" s="20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C206" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C209" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B210" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C210" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C211" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B212" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B213" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B214" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B223" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C223" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C224" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C226" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B227" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C227" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B228" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C228" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C229" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C230" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C232" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C234" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B235" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C235" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C204" s="20" t="s">
+      <c r="C244" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C245" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C246" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C247" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C248" s="20" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B205" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B206" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C206" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B208" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B209" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B210" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B211" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C211" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B212" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B213" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B214" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B215" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B216" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B217" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B218" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B219" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B220" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B221" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B222" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B223" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B224" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B225" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C225" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B226" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B227" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C227" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B228" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A229" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B229" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C229" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B230" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C230" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B231" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C231" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B232" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C232" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B233" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C233" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B234" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B235" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C235" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B236" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C236" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B237" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C237" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B238" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C238" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B239" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C239" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B240" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C240" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B241" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C241" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B242" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C242" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B243" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C243" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C244" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B245" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C245" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B246" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C246" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B247" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C247" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B248" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C248" s="16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -9668,10 +9762,10 @@
         <v>106</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -9679,10 +9773,10 @@
         <v>106</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -9690,10 +9784,10 @@
         <v>106</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -9701,10 +9795,10 @@
         <v>106</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -9712,2330 +9806,3309 @@
         <v>106</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B254" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C254" s="14" t="s">
-        <v>81</v>
+      <c r="A254" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B255" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C255" s="20" t="s">
-        <v>82</v>
+      <c r="A255" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B256" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C256" s="14" t="s">
-        <v>171</v>
+      <c r="A256" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B257" s="19" t="s">
+      <c r="A257" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B257" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C257" s="14" t="s">
-        <v>11</v>
+      <c r="C257" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B258" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C258" s="14" t="s">
-        <v>12</v>
+      <c r="A258" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B259" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C259" s="20" t="s">
-        <v>13</v>
+      <c r="A259" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B260" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C260" s="20" t="s">
-        <v>14</v>
+      <c r="A260" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B261" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C261" s="20" t="s">
+      <c r="A261" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B261" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C262" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C263" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B265" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C265" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C266" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C267" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C268" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C269" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C270" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C271" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B262" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C262" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B263" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B264" s="1" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B272" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C264" s="14" t="s">
+      <c r="C272" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B274" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B275" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C276" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C265" s="14" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B277" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C277" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C278" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B279" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C279" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B280" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C280" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C266" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C267" s="14" t="s">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B281" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C281" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B282" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C282" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B283" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C283" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C284" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C285" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B286" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C286" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B288" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B289" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B291" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B292" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B293" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C293" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C268" s="20" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B294" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C294" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C269" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C270" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C271" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C272" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C273" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C274" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C275" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C276" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C277" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C278" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C279" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C280" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C281" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C282" s="14" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C295" s="16" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C283" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C284" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C285" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C286" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C287" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C288" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C289" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C290" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C291" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C292" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C293" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C294" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C295" s="14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="16" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B296" s="16" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="16" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B297" s="16" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="16" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B298" s="16" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B299" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C299" s="16" t="s">
-        <v>115</v>
+      <c r="A299" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B299" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C299" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B300" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C300" s="16" t="s">
-        <v>116</v>
+      <c r="A300" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B300" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B301" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C301" s="16" t="s">
-        <v>117</v>
+      <c r="A301" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B301" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C301" s="20" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B302" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C302" s="16" t="s">
-        <v>118</v>
+      <c r="A302" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B302" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C302" s="20" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B303" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C303" s="16" t="s">
-        <v>171</v>
+      <c r="A303" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B303" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C303" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B304" s="16" t="s">
+      <c r="A304" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B304" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B305" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C305" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B306" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B307" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B308" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B309" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B310" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C304" s="16" t="s">
+      <c r="C311" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B305" s="16" t="s">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C305" s="16" t="s">
+      <c r="C312" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B306" s="16" t="s">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C306" s="16" t="s">
+      <c r="C313" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B307" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C307" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B308" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C308" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B309" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C309" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B310" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C310" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B311" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C311" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B312" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C312" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B313" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C313" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B314" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C314" s="16" t="s">
-        <v>16</v>
+      <c r="A314" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C314" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B315" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C315" s="16" t="s">
-        <v>17</v>
+      <c r="A315" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C315" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B316" s="16" t="s">
+      <c r="A316" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C316" s="16" t="s">
+      <c r="C316" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B317" s="16" t="s">
+      <c r="A317" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C317" s="16" t="s">
+      <c r="C317" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B318" s="16" t="s">
+      <c r="A318" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C318" s="16" t="s">
+      <c r="C318" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B319" s="16" t="s">
+      <c r="A319" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C319" s="16" t="s">
+      <c r="C319" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B320" s="16" t="s">
+      <c r="A320" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C320" s="16" t="s">
+      <c r="C320" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B321" s="16" t="s">
+      <c r="A321" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C321" s="16" t="s">
+      <c r="C321" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B322" s="16" t="s">
+      <c r="A322" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C322" s="16" t="s">
+      <c r="C322" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B323" s="16" t="s">
+      <c r="A323" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C323" s="16" t="s">
+      <c r="C323" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B324" s="16" t="s">
+      <c r="A324" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C324" s="16" t="s">
-        <v>48</v>
+      <c r="C324" s="20" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B325" s="16" t="s">
+      <c r="A325" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C325" s="16" t="s">
+      <c r="C325" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B326" s="16" t="s">
+      <c r="A326" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C326" s="16" t="s">
+      <c r="C326" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B327" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C327" s="16" t="s">
-        <v>119</v>
+      <c r="A327" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C327" s="20" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B328" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C328" s="16" t="s">
+      <c r="A328" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C328" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B329" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C329" s="16" t="s">
+      <c r="A329" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C329" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B330" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C330" s="16" t="s">
+      <c r="A330" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C330" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B331" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C331" s="16" t="s">
+      <c r="A331" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C331" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B332" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C332" s="16" t="s">
+      <c r="A332" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C332" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B333" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C333" s="16" t="s">
+      <c r="A333" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C333" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B334" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C334" s="16" t="s">
+      <c r="A334" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C334" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B335" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C335" s="16" t="s">
+      <c r="A335" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C335" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B336" s="16" t="s">
+      <c r="A336" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B336" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C336" s="16" t="s">
+      <c r="C336" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B337" s="16" t="s">
+      <c r="A337" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C337" s="16" t="s">
+      <c r="C337" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B338" s="16" t="s">
+      <c r="A338" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C338" s="16" t="s">
+      <c r="C345" s="20" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B339" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C339" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B340" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C340" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B341" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C341" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B342" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C342" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B343" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C343" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B344" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C344" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B345" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C345" s="16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C346" s="14" t="s">
-        <v>13</v>
+        <v>99</v>
+      </c>
+      <c r="C346" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B347" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C347" s="14" t="s">
-        <v>171</v>
+        <v>110</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C347" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B348" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C348" s="14" t="s">
-        <v>86</v>
+        <v>110</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C348" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B349" s="19" t="s">
-        <v>127</v>
+        <v>110</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C349" s="20" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B350" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C350" s="20" t="s">
-        <v>124</v>
+        <v>110</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C350" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B351" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C351" s="20" t="s">
-        <v>125</v>
+        <v>110</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C351" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B352" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C352" s="20" t="s">
-        <v>126</v>
+        <v>110</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C352" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B353" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C353" s="14" t="s">
-        <v>127</v>
+      <c r="A353" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B353" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C353" s="16" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B354" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C354" s="14" t="s">
-        <v>128</v>
+      <c r="A354" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B354" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C354" s="16" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B355" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C355" s="20" t="s">
-        <v>129</v>
+      <c r="A355" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B355" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C355" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C356" s="15" t="s">
-        <v>130</v>
+      <c r="A356" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B356" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C356" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B357" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C357" s="14" t="s">
-        <v>51</v>
+      <c r="A357" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B357" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C357" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B358" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C358" s="20" t="s">
-        <v>52</v>
+      <c r="A358" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B358" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C358" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B359" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C359" s="20" t="s">
+      <c r="A359" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B359" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C359" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B360" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C360" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C361" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B362" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C362" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B363" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C363" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B364" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C364" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B365" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C365" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B366" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B367" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C367" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B368" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B369" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B370" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B371" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B372" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C372" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B360" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C360" s="20" t="s">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B373" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C373" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B361" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C361" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B362" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C362" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B363" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C363" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B364" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C364" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B365" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C365" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B366" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C366" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B367" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C367" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B368" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C368" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B369" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C369" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C370" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C371" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C372" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C373" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C374" s="20" t="s">
-        <v>93</v>
+      <c r="A374" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B374" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C374" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C375" s="20" t="s">
-        <v>58</v>
+      <c r="A375" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B375" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C375" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C376" s="20" t="s">
-        <v>15</v>
+      <c r="A376" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B376" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C376" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B377" s="16" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B378" s="16" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B379" s="16" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B380" s="16" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B381" s="16" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B382" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B383" s="16" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B384" s="16" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B385" s="16" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B386" s="16" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B387" s="16" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B388" s="16" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B389" s="16" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B390" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B391" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B392" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B393" s="16" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B394" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C394" s="23" t="s">
-        <v>60</v>
+        <v>98</v>
+      </c>
+      <c r="C394" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B395" s="16" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B396" s="16" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B397" s="16" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B398" s="16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B399" s="16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B400" s="16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B401" s="16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B402" s="16" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B403" s="16" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B404" s="16" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B405" s="16" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B406" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B408" s="16" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B409" s="16" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C409" s="16" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B410" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C410" s="16" t="s">
-        <v>92</v>
+      <c r="A410" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C410" s="14" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B411" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C411" s="16" t="s">
-        <v>93</v>
+      <c r="A411" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C411" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B412" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C412" s="16" t="s">
-        <v>58</v>
+      <c r="A412" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C412" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B413" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C413" s="16" t="s">
-        <v>15</v>
+      <c r="A413" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B413" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C413" s="20" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B414" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C414" s="14" t="s">
-        <v>108</v>
+        <v>127</v>
+      </c>
+      <c r="C414" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B415" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C415" s="14" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="C415" s="20" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B416" s="19" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B417" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C417" s="14" t="s">
-        <v>43</v>
+        <v>132</v>
+      </c>
+      <c r="C417" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B418" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C418" s="14" t="s">
-        <v>57</v>
+        <v>169</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C418" s="15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B419" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B420" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C420" s="14" t="s">
-        <v>58</v>
+        <v>77</v>
+      </c>
+      <c r="C420" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B421" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C421" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="C421" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B422" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C422" s="24" t="s">
-        <v>60</v>
+        <v>77</v>
+      </c>
+      <c r="C422" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B423" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C423" s="24" t="s">
-        <v>91</v>
+        <v>77</v>
+      </c>
+      <c r="C423" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B424" s="19" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C424" s="20" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B425" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C425" s="20" t="s">
-        <v>140</v>
+        <v>77</v>
+      </c>
+      <c r="C425" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B426" s="19" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="C426" s="20" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B427" s="19" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B428" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B429" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C429" s="20" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="C429" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B430" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C430" s="20" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="C430" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B431" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C431" s="20" t="s">
-        <v>41</v>
+        <v>78</v>
+      </c>
+      <c r="C431" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B432" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C432" s="20" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="C432" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B433" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C433" s="20" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="C433" s="22" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B434" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C434" s="14" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="C434" s="22" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B435" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C435" s="20" t="s">
-        <v>56</v>
+        <v>169</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B436" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C436" s="16" t="s">
-        <v>145</v>
+      <c r="A436" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B437" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C437" s="16" t="s">
-        <v>146</v>
+      <c r="A437" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B438" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C438" s="16" t="s">
-        <v>147</v>
+      <c r="A438" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B439" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C439" s="16" t="s">
-        <v>167</v>
+      <c r="A439" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B440" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C440" s="16" t="s">
-        <v>149</v>
+      <c r="A440" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B441" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C441" s="16" t="s">
-        <v>150</v>
+      <c r="A441" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B442" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C442" s="16" t="s">
-        <v>151</v>
+      <c r="A442" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B443" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C443" s="16" t="s">
-        <v>152</v>
+      <c r="A443" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B444" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C444" s="16" t="s">
-        <v>153</v>
+      <c r="A444" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C444" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B445" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C445" s="16" t="s">
-        <v>154</v>
+      <c r="A445" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C445" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B446" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C446" s="16" t="s">
-        <v>155</v>
+      <c r="A446" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C446" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B447" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C447" s="16" t="s">
-        <v>156</v>
+      <c r="A447" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C447" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B448" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C448" s="16" t="s">
-        <v>157</v>
+      <c r="A448" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C448" s="20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B451" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C451" s="16" t="s">
-        <v>160</v>
+        <v>138</v>
+      </c>
+      <c r="C451" s="24" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B452" s="16" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C452" s="16" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B453" s="16" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C453" s="16" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B454" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C454" s="16" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B455" s="16" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="C455" s="16" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B456" s="16" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
-        <v>143</v>
-      </c>
-      <c r="B457" t="s">
-        <v>98</v>
-      </c>
-      <c r="C457" s="4" t="s">
-        <v>144</v>
+      <c r="A457" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B457" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C457" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="16" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B458" s="16" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="16" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B459" s="16" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="C459" s="16" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="16" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B460" s="16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C460" s="16" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="16" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B461" s="16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C461" s="16" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="16" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B462" s="16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C462" s="16" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="16" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B463" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C463" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B464" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C464" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B465" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C465" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B466" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C466" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B467" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C467" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B468" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C468" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B469" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C469" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B470" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B471" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C471" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B472" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C472" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B473" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C473" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B474" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C474" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B475" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C475" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B476" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C476" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B477" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C477" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B478" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C478" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B479" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C479" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B480" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C480" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B481" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C481" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B482" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C482" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B483" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C483" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B484" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C484" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B485" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C485" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B486" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C486" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B487" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C487" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B488" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C488" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B489" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C489" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B490" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C490" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B491" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C491" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B492" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C492" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B493" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C493" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B494" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C494" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B495" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C495" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B496" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C496" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B497" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C497" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B498" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C498" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B499" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C499" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B500" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C500" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B501" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C501" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B502" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C502" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B503" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C503" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B504" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C504" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B505" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C505" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B506" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C506" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B507" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C507" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B508" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C508" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B509" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C509" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B510" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C510" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B511" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C511" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B512" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C512" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B513" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C513" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B514" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C514" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B515" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C515" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B516" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C516" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B517" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C517" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B518" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C518" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B519" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C519" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B520" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C520" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B521" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C521" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B522" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C522" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B523" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C523" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B524" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C524" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B525" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C525" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B526" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C526" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B527" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C527" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B528" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C528" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B529" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C529" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B530" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C530" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B531" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C531" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B532" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C532" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B533" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C533" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B534" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C534" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B535" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C535" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B536" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C536" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B537" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C537" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B538" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C538" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B539" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C539" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B540" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C540" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B541" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C541" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B542" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C542" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B543" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C543" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B544" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C544" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B545" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C545" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>143</v>
+      </c>
+      <c r="B546" t="s">
+        <v>98</v>
+      </c>
+      <c r="C546" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B464" s="16" t="s">
+      <c r="B547" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C547" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B548" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C548" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B549" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C549" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B550" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C550" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B551" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C551" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B552" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C464" s="16" t="s">
+      <c r="C552" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B553" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C553" s="16" t="s">
         <v>62</v>
       </c>
     </row>

--- a/nested_checklist.xlsx
+++ b/nested_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshmavj\Desktop\Dash_Design_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020D3B2-FF8B-4FC2-8CDE-B87D1D8848E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8825A2B8-2944-4707-BDB5-9D3B4FEACEE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{7AFA0A77-515C-485B-B22A-2C0F7CBD4C1A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="209">
   <si>
     <t>Service Function</t>
   </si>
@@ -7016,10 +7016,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EB169F-E9D2-4A55-A0AE-6164311762E5}">
-  <dimension ref="A1:C553"/>
+  <dimension ref="A1:C554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7342,43 +7342,43 @@
         <v>2</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>179</v>
+      <c r="C31" s="17" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>9</v>
+      <c r="B32" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -7386,10 +7386,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -7400,7 +7400,7 @@
         <v>96</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -7411,7 +7411,7 @@
         <v>96</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -7422,18 +7422,18 @@
         <v>96</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>76</v>
+      <c r="B37" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -7443,8 +7443,8 @@
       <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>41</v>
+      <c r="C38" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -7455,7 +7455,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -7465,8 +7465,8 @@
       <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>43</v>
+      <c r="C40" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -7476,8 +7476,8 @@
       <c r="B41" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>44</v>
+      <c r="C41" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -7488,7 +7488,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -7499,7 +7499,7 @@
         <v>76</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -7510,7 +7510,7 @@
         <v>76</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -7521,7 +7521,7 @@
         <v>76</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -7532,7 +7532,7 @@
         <v>76</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -7543,7 +7543,7 @@
         <v>76</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -7554,7 +7554,7 @@
         <v>76</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -7562,10 +7562,10 @@
         <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -7576,7 +7576,7 @@
         <v>94</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -7587,7 +7587,7 @@
         <v>94</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -7598,7 +7598,7 @@
         <v>94</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -7606,10 +7606,10 @@
         <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>184</v>
+        <v>94</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -7619,8 +7619,8 @@
       <c r="B54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>185</v>
+      <c r="C54" s="24" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -7628,10 +7628,10 @@
         <v>33</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -7641,8 +7641,8 @@
       <c r="B56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>52</v>
+      <c r="C56" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -7653,7 +7653,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -7664,7 +7664,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -7674,8 +7674,8 @@
       <c r="B59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>53</v>
+      <c r="C59" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -7686,7 +7686,7 @@
         <v>77</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -7697,7 +7697,7 @@
         <v>77</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -7708,7 +7708,7 @@
         <v>77</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -7716,10 +7716,10 @@
         <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -7727,10 +7727,10 @@
         <v>33</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>65</v>
+        <v>97</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -7741,7 +7741,7 @@
         <v>80</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -7752,7 +7752,7 @@
         <v>80</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -7763,7 +7763,7 @@
         <v>80</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -7773,8 +7773,8 @@
       <c r="B68" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>69</v>
+      <c r="C68" s="20" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -7785,7 +7785,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -7795,8 +7795,8 @@
       <c r="B70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="20" t="s">
-        <v>189</v>
+      <c r="C70" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -7804,10 +7804,10 @@
         <v>33</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -7817,8 +7817,8 @@
       <c r="B72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="20" t="s">
-        <v>7</v>
+      <c r="C72" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -7829,7 +7829,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -7837,10 +7837,10 @@
         <v>33</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -7851,7 +7851,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -7861,8 +7861,8 @@
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="20" t="s">
-        <v>13</v>
+      <c r="C76" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -7873,7 +7873,7 @@
         <v>10</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -7884,7 +7884,7 @@
         <v>10</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -7895,7 +7895,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -7906,18 +7906,18 @@
         <v>10</v>
       </c>
       <c r="C80" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="20" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -7928,7 +7928,7 @@
         <v>94</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -7939,7 +7939,7 @@
         <v>94</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -7950,7 +7950,7 @@
         <v>94</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -7958,10 +7958,10 @@
         <v>170</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -7969,10 +7969,10 @@
         <v>170</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -7983,7 +7983,7 @@
         <v>10</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -7994,7 +7994,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -8005,7 +8005,7 @@
         <v>10</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -8016,7 +8016,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -8027,7 +8027,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -8038,7 +8038,7 @@
         <v>10</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -8046,10 +8046,10 @@
         <v>170</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>190</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -8060,7 +8060,7 @@
         <v>74</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -8071,7 +8071,7 @@
         <v>74</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -8079,10 +8079,10 @@
         <v>170</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -8093,7 +8093,7 @@
         <v>76</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -8104,7 +8104,7 @@
         <v>76</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -8115,7 +8115,7 @@
         <v>76</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -8126,7 +8126,7 @@
         <v>76</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -8137,7 +8137,7 @@
         <v>76</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -8148,7 +8148,7 @@
         <v>76</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -8159,7 +8159,7 @@
         <v>76</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -8170,7 +8170,7 @@
         <v>76</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -8181,7 +8181,7 @@
         <v>76</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -8192,7 +8192,7 @@
         <v>76</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -8203,7 +8203,7 @@
         <v>76</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -8211,10 +8211,10 @@
         <v>170</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -8225,7 +8225,7 @@
         <v>77</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -8236,7 +8236,7 @@
         <v>77</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -8247,7 +8247,7 @@
         <v>77</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -8258,7 +8258,7 @@
         <v>77</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -8269,7 +8269,7 @@
         <v>77</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -8280,7 +8280,7 @@
         <v>77</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -8291,7 +8291,7 @@
         <v>77</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -8299,10 +8299,10 @@
         <v>170</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -8310,10 +8310,10 @@
         <v>170</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -8324,7 +8324,7 @@
         <v>78</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -8335,7 +8335,7 @@
         <v>78</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -8346,7 +8346,7 @@
         <v>78</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -8357,7 +8357,7 @@
         <v>78</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -8365,10 +8365,10 @@
         <v>170</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -8379,7 +8379,7 @@
         <v>98</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -8390,7 +8390,7 @@
         <v>98</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -8401,7 +8401,7 @@
         <v>98</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -8412,7 +8412,7 @@
         <v>98</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -8423,7 +8423,7 @@
         <v>98</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -8434,7 +8434,7 @@
         <v>98</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -8445,7 +8445,7 @@
         <v>98</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -8456,7 +8456,7 @@
         <v>98</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -8464,10 +8464,10 @@
         <v>170</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -8475,10 +8475,10 @@
         <v>170</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -8486,10 +8486,10 @@
         <v>170</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -8500,7 +8500,7 @@
         <v>96</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -8511,7 +8511,7 @@
         <v>96</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -8522,7 +8522,7 @@
         <v>96</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -8530,10 +8530,10 @@
         <v>170</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -8541,10 +8541,10 @@
         <v>170</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -8555,7 +8555,7 @@
         <v>99</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -8566,7 +8566,7 @@
         <v>99</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -8577,7 +8577,7 @@
         <v>99</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -8588,18 +8588,18 @@
         <v>99</v>
       </c>
       <c r="C142" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C143" s="16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -8607,21 +8607,21 @@
         <v>102</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B145" s="19" t="s">
-        <v>78</v>
+      <c r="B145" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -8632,7 +8632,7 @@
         <v>78</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -8643,7 +8643,7 @@
         <v>78</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -8654,7 +8654,7 @@
         <v>78</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -8665,29 +8665,29 @@
         <v>78</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B150" s="14" t="s">
-        <v>100</v>
+      <c r="B150" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B151" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>57</v>
+      <c r="B151" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -8698,7 +8698,7 @@
         <v>99</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -8709,7 +8709,7 @@
         <v>99</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -8720,29 +8720,29 @@
         <v>99</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>15</v>
+      <c r="C155" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B156" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>11</v>
+      <c r="B156" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -8753,7 +8753,7 @@
         <v>10</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -8763,8 +8763,8 @@
       <c r="B158" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="20" t="s">
-        <v>13</v>
+      <c r="C158" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -8775,7 +8775,7 @@
         <v>10</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -8786,7 +8786,7 @@
         <v>10</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -8797,7 +8797,7 @@
         <v>10</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -8808,7 +8808,7 @@
         <v>10</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -8816,10 +8816,10 @@
         <v>102</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>190</v>
+        <v>10</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -8830,7 +8830,7 @@
         <v>74</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -8841,7 +8841,7 @@
         <v>74</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -8849,10 +8849,10 @@
         <v>102</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -8862,8 +8862,8 @@
       <c r="B167" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C167" s="20" t="s">
-        <v>52</v>
+      <c r="C167" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -8874,7 +8874,7 @@
         <v>77</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -8885,7 +8885,7 @@
         <v>77</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -8895,8 +8895,8 @@
       <c r="B170" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C170" s="14" t="s">
-        <v>53</v>
+      <c r="C170" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -8907,7 +8907,7 @@
         <v>77</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -8918,7 +8918,7 @@
         <v>77</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -8928,8 +8928,8 @@
       <c r="B173" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C173" s="19" t="s">
-        <v>56</v>
+      <c r="C173" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -8937,10 +8937,10 @@
         <v>102</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>197</v>
+        <v>77</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -8948,21 +8948,21 @@
         <v>102</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>92</v>
+      <c r="C176" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -8973,7 +8973,7 @@
         <v>98</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -8984,7 +8984,7 @@
         <v>98</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -8995,7 +8995,7 @@
         <v>98</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -9006,7 +9006,7 @@
         <v>98</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -9017,7 +9017,7 @@
         <v>98</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -9028,7 +9028,7 @@
         <v>98</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -9039,18 +9039,18 @@
         <v>98</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B184" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C184" s="16" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -9061,7 +9061,7 @@
         <v>104</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -9072,7 +9072,7 @@
         <v>104</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -9080,10 +9080,10 @@
         <v>103</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -9094,7 +9094,7 @@
         <v>98</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -9105,7 +9105,7 @@
         <v>98</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -9116,7 +9116,7 @@
         <v>98</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -9127,7 +9127,7 @@
         <v>98</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -9138,7 +9138,7 @@
         <v>98</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -9149,7 +9149,7 @@
         <v>98</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -9160,7 +9160,7 @@
         <v>98</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -9171,7 +9171,7 @@
         <v>98</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -9179,10 +9179,10 @@
         <v>103</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -9193,7 +9193,7 @@
         <v>77</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -9204,7 +9204,7 @@
         <v>77</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -9215,7 +9215,7 @@
         <v>77</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -9226,7 +9226,7 @@
         <v>77</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -9237,7 +9237,7 @@
         <v>77</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -9248,7 +9248,7 @@
         <v>77</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -9259,18 +9259,18 @@
         <v>77</v>
       </c>
       <c r="C203" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C204" s="16" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B204" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C204" s="14" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -9278,21 +9278,21 @@
         <v>105</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B206" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>57</v>
+      <c r="B206" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -9303,7 +9303,7 @@
         <v>78</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -9314,7 +9314,7 @@
         <v>78</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -9325,7 +9325,7 @@
         <v>78</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -9336,29 +9336,29 @@
         <v>78</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B211" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C211" s="14" t="s">
-        <v>100</v>
+      <c r="B211" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C211" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B212" s="19" t="s">
-        <v>10</v>
+      <c r="B212" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -9369,7 +9369,7 @@
         <v>10</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -9379,8 +9379,8 @@
       <c r="B214" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C214" s="20" t="s">
-        <v>13</v>
+      <c r="C214" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -9391,7 +9391,7 @@
         <v>10</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -9402,7 +9402,7 @@
         <v>10</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -9413,7 +9413,7 @@
         <v>10</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -9424,7 +9424,7 @@
         <v>10</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -9432,10 +9432,10 @@
         <v>105</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C219" s="14" t="s">
-        <v>190</v>
+        <v>10</v>
+      </c>
+      <c r="C219" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -9446,7 +9446,7 @@
         <v>74</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -9457,7 +9457,7 @@
         <v>74</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -9465,10 +9465,10 @@
         <v>105</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -9478,8 +9478,8 @@
       <c r="B223" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C223" s="20" t="s">
-        <v>37</v>
+      <c r="C223" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -9490,7 +9490,7 @@
         <v>75</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -9501,7 +9501,7 @@
         <v>75</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -9509,10 +9509,10 @@
         <v>105</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C226" s="14" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="C226" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -9522,8 +9522,8 @@
       <c r="B227" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C227" s="20" t="s">
-        <v>52</v>
+      <c r="C227" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -9534,7 +9534,7 @@
         <v>77</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -9545,7 +9545,7 @@
         <v>77</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -9555,8 +9555,8 @@
       <c r="B230" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C230" s="14" t="s">
-        <v>53</v>
+      <c r="C230" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -9567,7 +9567,7 @@
         <v>77</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -9578,7 +9578,7 @@
         <v>77</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -9588,8 +9588,8 @@
       <c r="B233" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C233" s="19" t="s">
-        <v>56</v>
+      <c r="C233" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -9597,10 +9597,10 @@
         <v>105</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C234" s="14" t="s">
-        <v>197</v>
+        <v>77</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -9608,21 +9608,21 @@
         <v>105</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>92</v>
+      <c r="C236" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -9633,7 +9633,7 @@
         <v>98</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -9644,7 +9644,7 @@
         <v>98</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -9655,7 +9655,7 @@
         <v>98</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -9666,7 +9666,7 @@
         <v>98</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -9677,7 +9677,7 @@
         <v>98</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -9688,7 +9688,7 @@
         <v>98</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -9699,7 +9699,7 @@
         <v>98</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -9707,10 +9707,10 @@
         <v>105</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C244" s="20" t="s">
-        <v>57</v>
+        <v>98</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -9721,7 +9721,7 @@
         <v>99</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -9732,7 +9732,7 @@
         <v>99</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -9743,7 +9743,7 @@
         <v>99</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -9754,18 +9754,18 @@
         <v>99</v>
       </c>
       <c r="C248" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C249" s="20" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B249" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C249" s="16" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -9773,10 +9773,10 @@
         <v>106</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -9784,10 +9784,10 @@
         <v>106</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -9798,7 +9798,7 @@
         <v>10</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -9809,7 +9809,7 @@
         <v>10</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -9820,7 +9820,7 @@
         <v>10</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -9831,7 +9831,7 @@
         <v>10</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -9842,7 +9842,7 @@
         <v>10</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -9853,7 +9853,7 @@
         <v>10</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -9861,10 +9861,10 @@
         <v>106</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -9875,7 +9875,7 @@
         <v>76</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -9886,7 +9886,7 @@
         <v>76</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -9897,7 +9897,7 @@
         <v>76</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -9908,7 +9908,7 @@
         <v>76</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -9919,7 +9919,7 @@
         <v>76</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -9930,7 +9930,7 @@
         <v>76</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -9941,7 +9941,7 @@
         <v>76</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -9952,7 +9952,7 @@
         <v>76</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -9963,7 +9963,7 @@
         <v>76</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -9974,7 +9974,7 @@
         <v>76</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -9985,7 +9985,7 @@
         <v>76</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -9993,10 +9993,10 @@
         <v>106</v>
       </c>
       <c r="B270" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -10007,7 +10007,7 @@
         <v>78</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -10018,7 +10018,7 @@
         <v>78</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -10029,7 +10029,7 @@
         <v>78</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -10040,7 +10040,7 @@
         <v>78</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -10048,10 +10048,10 @@
         <v>106</v>
       </c>
       <c r="B275" s="16" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -10059,10 +10059,10 @@
         <v>106</v>
       </c>
       <c r="B276" s="16" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -10073,7 +10073,7 @@
         <v>99</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -10084,7 +10084,7 @@
         <v>99</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -10095,7 +10095,7 @@
         <v>99</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -10106,7 +10106,7 @@
         <v>99</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -10114,10 +10114,10 @@
         <v>106</v>
       </c>
       <c r="B281" s="16" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -10128,7 +10128,7 @@
         <v>80</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -10139,7 +10139,7 @@
         <v>80</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -10150,7 +10150,7 @@
         <v>80</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -10161,7 +10161,7 @@
         <v>80</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -10172,7 +10172,7 @@
         <v>80</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -10183,7 +10183,7 @@
         <v>80</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -10191,10 +10191,10 @@
         <v>106</v>
       </c>
       <c r="B288" s="16" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -10205,7 +10205,7 @@
         <v>5</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -10216,7 +10216,7 @@
         <v>5</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -10224,10 +10224,10 @@
         <v>106</v>
       </c>
       <c r="B291" s="16" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -10238,7 +10238,7 @@
         <v>77</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -10249,7 +10249,7 @@
         <v>77</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -10260,7 +10260,7 @@
         <v>77</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -10271,7 +10271,7 @@
         <v>77</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -10282,7 +10282,7 @@
         <v>77</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -10293,7 +10293,7 @@
         <v>77</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -10304,18 +10304,18 @@
         <v>77</v>
       </c>
       <c r="C298" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B299" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C299" s="16" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B299" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C299" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -10325,8 +10325,8 @@
       <c r="B300" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C300" s="20" t="s">
-        <v>82</v>
+      <c r="C300" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -10337,7 +10337,7 @@
         <v>94</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -10348,29 +10348,29 @@
         <v>94</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B303" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C303" s="14" t="s">
-        <v>179</v>
+      <c r="B303" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C303" s="20" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B304" s="19" t="s">
-        <v>10</v>
+      <c r="B304" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -10381,7 +10381,7 @@
         <v>10</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -10391,8 +10391,8 @@
       <c r="B306" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C306" s="20" t="s">
-        <v>13</v>
+      <c r="C306" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -10403,7 +10403,7 @@
         <v>10</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -10414,7 +10414,7 @@
         <v>10</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -10425,7 +10425,7 @@
         <v>10</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -10436,18 +10436,18 @@
         <v>10</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C311" s="14" t="s">
-        <v>57</v>
+      <c r="B311" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -10458,7 +10458,7 @@
         <v>78</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -10469,7 +10469,7 @@
         <v>78</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -10480,7 +10480,7 @@
         <v>78</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -10491,7 +10491,7 @@
         <v>78</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -10499,10 +10499,10 @@
         <v>110</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -10512,8 +10512,8 @@
       <c r="B317" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C317" s="20" t="s">
-        <v>41</v>
+      <c r="C317" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -10524,7 +10524,7 @@
         <v>76</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -10534,8 +10534,8 @@
       <c r="B319" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C319" s="14" t="s">
-        <v>43</v>
+      <c r="C319" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -10545,8 +10545,8 @@
       <c r="B320" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C320" s="20" t="s">
-        <v>44</v>
+      <c r="C320" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -10557,7 +10557,7 @@
         <v>76</v>
       </c>
       <c r="C321" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -10568,7 +10568,7 @@
         <v>76</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -10579,7 +10579,7 @@
         <v>76</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -10590,7 +10590,7 @@
         <v>76</v>
       </c>
       <c r="C324" s="20" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -10601,7 +10601,7 @@
         <v>76</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -10612,7 +10612,7 @@
         <v>76</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -10623,7 +10623,7 @@
         <v>76</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -10631,10 +10631,10 @@
         <v>110</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C328" s="14" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="C328" s="20" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -10644,8 +10644,8 @@
       <c r="B329" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C329" s="20" t="s">
-        <v>52</v>
+      <c r="C329" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -10656,7 +10656,7 @@
         <v>77</v>
       </c>
       <c r="C330" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -10667,7 +10667,7 @@
         <v>77</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -10677,8 +10677,8 @@
       <c r="B332" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C332" s="14" t="s">
-        <v>53</v>
+      <c r="C332" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -10689,7 +10689,7 @@
         <v>77</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -10700,7 +10700,7 @@
         <v>77</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -10710,30 +10710,30 @@
       <c r="B335" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C335" s="21" t="s">
-        <v>56</v>
+      <c r="C335" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B336" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C336" s="14" t="s">
-        <v>91</v>
+      <c r="B336" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C336" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B337" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>92</v>
+      <c r="C337" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -10744,7 +10744,7 @@
         <v>98</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -10755,7 +10755,7 @@
         <v>98</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -10766,7 +10766,7 @@
         <v>98</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -10777,7 +10777,7 @@
         <v>98</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -10788,7 +10788,7 @@
         <v>98</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -10799,7 +10799,7 @@
         <v>98</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -10810,7 +10810,7 @@
         <v>98</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -10818,10 +10818,10 @@
         <v>110</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C345" s="20" t="s">
-        <v>57</v>
+        <v>98</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -10832,7 +10832,7 @@
         <v>99</v>
       </c>
       <c r="C346" s="20" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -10843,7 +10843,7 @@
         <v>99</v>
       </c>
       <c r="C347" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -10854,7 +10854,7 @@
         <v>99</v>
       </c>
       <c r="C348" s="20" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -10865,7 +10865,7 @@
         <v>99</v>
       </c>
       <c r="C349" s="20" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -10873,10 +10873,10 @@
         <v>110</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C350" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="C350" s="20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -10887,7 +10887,7 @@
         <v>111</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -10898,18 +10898,18 @@
         <v>111</v>
       </c>
       <c r="C352" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C353" s="14" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B353" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C353" s="16" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -10920,7 +10920,7 @@
         <v>199</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -10928,10 +10928,10 @@
         <v>120</v>
       </c>
       <c r="B355" s="16" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -10939,10 +10939,10 @@
         <v>120</v>
       </c>
       <c r="B356" s="16" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -10953,7 +10953,7 @@
         <v>78</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -10964,7 +10964,7 @@
         <v>78</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -10975,7 +10975,7 @@
         <v>78</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -10986,7 +10986,7 @@
         <v>78</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -10994,10 +10994,10 @@
         <v>120</v>
       </c>
       <c r="B361" s="16" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -11008,7 +11008,7 @@
         <v>94</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -11019,7 +11019,7 @@
         <v>94</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -11030,7 +11030,7 @@
         <v>94</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -11038,10 +11038,10 @@
         <v>120</v>
       </c>
       <c r="B365" s="16" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -11052,7 +11052,7 @@
         <v>10</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -11063,7 +11063,7 @@
         <v>10</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -11074,7 +11074,7 @@
         <v>10</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -11085,7 +11085,7 @@
         <v>10</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -11096,7 +11096,7 @@
         <v>10</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -11107,7 +11107,7 @@
         <v>10</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -11115,10 +11115,10 @@
         <v>120</v>
       </c>
       <c r="B372" s="16" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -11129,7 +11129,7 @@
         <v>76</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -11140,7 +11140,7 @@
         <v>76</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -11151,7 +11151,7 @@
         <v>76</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -11162,7 +11162,7 @@
         <v>76</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -11173,7 +11173,7 @@
         <v>76</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -11184,7 +11184,7 @@
         <v>76</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -11195,7 +11195,7 @@
         <v>76</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -11206,7 +11206,7 @@
         <v>76</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -11217,7 +11217,7 @@
         <v>76</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -11228,7 +11228,7 @@
         <v>76</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -11239,7 +11239,7 @@
         <v>76</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -11247,10 +11247,10 @@
         <v>120</v>
       </c>
       <c r="B384" s="16" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -11258,10 +11258,10 @@
         <v>120</v>
       </c>
       <c r="B385" s="16" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -11272,7 +11272,7 @@
         <v>77</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -11283,7 +11283,7 @@
         <v>77</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -11294,7 +11294,7 @@
         <v>77</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -11305,7 +11305,7 @@
         <v>77</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -11316,7 +11316,7 @@
         <v>77</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -11327,7 +11327,7 @@
         <v>77</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -11338,7 +11338,7 @@
         <v>77</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -11346,10 +11346,10 @@
         <v>120</v>
       </c>
       <c r="B393" s="16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -11360,7 +11360,7 @@
         <v>98</v>
       </c>
       <c r="C394" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -11371,7 +11371,7 @@
         <v>98</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -11382,7 +11382,7 @@
         <v>98</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -11393,7 +11393,7 @@
         <v>98</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -11404,7 +11404,7 @@
         <v>98</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -11415,7 +11415,7 @@
         <v>98</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -11426,7 +11426,7 @@
         <v>98</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -11437,7 +11437,7 @@
         <v>98</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -11445,10 +11445,10 @@
         <v>120</v>
       </c>
       <c r="B402" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -11459,7 +11459,7 @@
         <v>99</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -11470,7 +11470,7 @@
         <v>99</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -11481,7 +11481,7 @@
         <v>99</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -11492,7 +11492,7 @@
         <v>99</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -11500,10 +11500,10 @@
         <v>120</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -11514,7 +11514,7 @@
         <v>111</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -11525,29 +11525,29 @@
         <v>111</v>
       </c>
       <c r="C409" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B410" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C410" s="16" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C410" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B411" s="14" t="s">
-        <v>179</v>
+      <c r="B411" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -11555,21 +11555,21 @@
         <v>169</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B413" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C413" s="20" t="s">
-        <v>203</v>
+      <c r="B413" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C413" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -11580,7 +11580,7 @@
         <v>127</v>
       </c>
       <c r="C414" s="20" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -11591,7 +11591,7 @@
         <v>127</v>
       </c>
       <c r="C415" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -11599,10 +11599,10 @@
         <v>169</v>
       </c>
       <c r="B416" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C416" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="C416" s="20" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -11612,30 +11612,30 @@
       <c r="B417" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C417" s="20" t="s">
-        <v>129</v>
+      <c r="C417" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B418" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C418" s="15" t="s">
-        <v>130</v>
+      <c r="B418" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C418" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B419" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C419" s="14" t="s">
-        <v>51</v>
+      <c r="B419" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C419" s="15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -11645,8 +11645,8 @@
       <c r="B420" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C420" s="20" t="s">
-        <v>52</v>
+      <c r="C420" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
@@ -11657,7 +11657,7 @@
         <v>77</v>
       </c>
       <c r="C421" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -11668,7 +11668,7 @@
         <v>77</v>
       </c>
       <c r="C422" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -11679,7 +11679,7 @@
         <v>77</v>
       </c>
       <c r="C423" s="20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -11690,7 +11690,7 @@
         <v>77</v>
       </c>
       <c r="C424" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -11700,8 +11700,8 @@
       <c r="B425" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C425" s="14" t="s">
-        <v>55</v>
+      <c r="C425" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -11711,8 +11711,8 @@
       <c r="B426" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C426" s="20" t="s">
-        <v>56</v>
+      <c r="C426" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -11720,10 +11720,10 @@
         <v>169</v>
       </c>
       <c r="B427" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C427" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="C427" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -11734,7 +11734,7 @@
         <v>78</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -11745,7 +11745,7 @@
         <v>78</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -11756,7 +11756,7 @@
         <v>78</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -11767,7 +11767,7 @@
         <v>78</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -11775,10 +11775,10 @@
         <v>169</v>
       </c>
       <c r="B432" s="19" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -11788,8 +11788,8 @@
       <c r="B433" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C433" s="22" t="s">
-        <v>196</v>
+      <c r="C433" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -11800,18 +11800,18 @@
         <v>59</v>
       </c>
       <c r="C434" s="22" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B435" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>91</v>
+      <c r="B435" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C435" s="22" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -11822,7 +11822,7 @@
         <v>98</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -11833,7 +11833,7 @@
         <v>98</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -11844,7 +11844,7 @@
         <v>98</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -11855,7 +11855,7 @@
         <v>98</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -11866,7 +11866,7 @@
         <v>98</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -11877,7 +11877,7 @@
         <v>98</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -11888,7 +11888,7 @@
         <v>98</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -11899,7 +11899,7 @@
         <v>98</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -11907,10 +11907,10 @@
         <v>169</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C444" s="20" t="s">
-        <v>57</v>
+        <v>98</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -11921,7 +11921,7 @@
         <v>99</v>
       </c>
       <c r="C445" s="20" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -11932,7 +11932,7 @@
         <v>99</v>
       </c>
       <c r="C446" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -11943,7 +11943,7 @@
         <v>99</v>
       </c>
       <c r="C447" s="20" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -11954,18 +11954,18 @@
         <v>99</v>
       </c>
       <c r="C448" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C449" s="20" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B449" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C449" s="16" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -11976,7 +11976,7 @@
         <v>138</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -11986,8 +11986,8 @@
       <c r="B451" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C451" s="24" t="s">
-        <v>195</v>
+      <c r="C451" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -11997,8 +11997,8 @@
       <c r="B452" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C452" s="16" t="s">
-        <v>206</v>
+      <c r="C452" s="24" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -12009,7 +12009,7 @@
         <v>138</v>
       </c>
       <c r="C453" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -12017,10 +12017,10 @@
         <v>137</v>
       </c>
       <c r="B454" s="16" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="C454" s="16" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -12028,10 +12028,10 @@
         <v>137</v>
       </c>
       <c r="B455" s="16" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="C455" s="16" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -12039,10 +12039,10 @@
         <v>137</v>
       </c>
       <c r="B456" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -12053,7 +12053,7 @@
         <v>10</v>
       </c>
       <c r="C457" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -12064,7 +12064,7 @@
         <v>10</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -12075,7 +12075,7 @@
         <v>10</v>
       </c>
       <c r="C459" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -12086,7 +12086,7 @@
         <v>10</v>
       </c>
       <c r="C460" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -12097,7 +12097,7 @@
         <v>10</v>
       </c>
       <c r="C461" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -12108,7 +12108,7 @@
         <v>10</v>
       </c>
       <c r="C462" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -12116,10 +12116,10 @@
         <v>137</v>
       </c>
       <c r="B463" s="16" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C463" s="16" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -12130,7 +12130,7 @@
         <v>78</v>
       </c>
       <c r="C464" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -12141,7 +12141,7 @@
         <v>78</v>
       </c>
       <c r="C465" s="16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -12152,7 +12152,7 @@
         <v>78</v>
       </c>
       <c r="C466" s="16" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -12163,7 +12163,7 @@
         <v>78</v>
       </c>
       <c r="C467" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -12171,10 +12171,10 @@
         <v>137</v>
       </c>
       <c r="B468" s="16" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C468" s="16" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -12182,10 +12182,10 @@
         <v>137</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C469" s="16" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -12196,7 +12196,7 @@
         <v>5</v>
       </c>
       <c r="C470" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -12207,7 +12207,7 @@
         <v>5</v>
       </c>
       <c r="C471" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -12215,10 +12215,10 @@
         <v>137</v>
       </c>
       <c r="B472" s="16" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C472" s="16" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -12229,7 +12229,7 @@
         <v>77</v>
       </c>
       <c r="C473" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -12240,7 +12240,7 @@
         <v>77</v>
       </c>
       <c r="C474" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -12251,7 +12251,7 @@
         <v>77</v>
       </c>
       <c r="C475" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -12262,7 +12262,7 @@
         <v>77</v>
       </c>
       <c r="C476" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -12273,7 +12273,7 @@
         <v>77</v>
       </c>
       <c r="C477" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -12284,7 +12284,7 @@
         <v>77</v>
       </c>
       <c r="C478" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -12295,7 +12295,7 @@
         <v>77</v>
       </c>
       <c r="C479" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -12303,10 +12303,10 @@
         <v>137</v>
       </c>
       <c r="B480" s="16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C480" s="16" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -12317,7 +12317,7 @@
         <v>98</v>
       </c>
       <c r="C481" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -12328,7 +12328,7 @@
         <v>98</v>
       </c>
       <c r="C482" s="16" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -12339,7 +12339,7 @@
         <v>98</v>
       </c>
       <c r="C483" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -12350,7 +12350,7 @@
         <v>98</v>
       </c>
       <c r="C484" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -12361,7 +12361,7 @@
         <v>98</v>
       </c>
       <c r="C485" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -12372,7 +12372,7 @@
         <v>98</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -12383,7 +12383,7 @@
         <v>98</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -12394,7 +12394,7 @@
         <v>98</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -12402,10 +12402,10 @@
         <v>137</v>
       </c>
       <c r="B489" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C489" s="16" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -12413,10 +12413,10 @@
         <v>137</v>
       </c>
       <c r="B490" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C490" s="16" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -12427,7 +12427,7 @@
         <v>99</v>
       </c>
       <c r="C491" s="16" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -12438,7 +12438,7 @@
         <v>99</v>
       </c>
       <c r="C492" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -12449,7 +12449,7 @@
         <v>99</v>
       </c>
       <c r="C493" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -12460,18 +12460,18 @@
         <v>99</v>
       </c>
       <c r="C494" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B495" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C495" s="16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B495" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C495" s="14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -12479,10 +12479,10 @@
         <v>139</v>
       </c>
       <c r="B496" s="19" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C496" s="14" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -12493,7 +12493,7 @@
         <v>111</v>
       </c>
       <c r="C497" s="14" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -12504,7 +12504,7 @@
         <v>111</v>
       </c>
       <c r="C498" s="14" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -12512,10 +12512,10 @@
         <v>139</v>
       </c>
       <c r="B499" s="19" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C499" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -12526,7 +12526,7 @@
         <v>78</v>
       </c>
       <c r="C500" s="14" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -12537,7 +12537,7 @@
         <v>78</v>
       </c>
       <c r="C501" s="14" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -12548,7 +12548,7 @@
         <v>78</v>
       </c>
       <c r="C502" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
@@ -12559,7 +12559,7 @@
         <v>78</v>
       </c>
       <c r="C503" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -12567,21 +12567,21 @@
         <v>139</v>
       </c>
       <c r="B504" s="19" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C504" s="14" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B505" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C505" s="16" t="s">
-        <v>91</v>
+      <c r="B505" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C505" s="14" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -12592,7 +12592,7 @@
         <v>98</v>
       </c>
       <c r="C506" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
@@ -12603,7 +12603,7 @@
         <v>98</v>
       </c>
       <c r="C507" s="16" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -12614,7 +12614,7 @@
         <v>98</v>
       </c>
       <c r="C508" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
@@ -12625,7 +12625,7 @@
         <v>98</v>
       </c>
       <c r="C509" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
@@ -12636,7 +12636,7 @@
         <v>98</v>
       </c>
       <c r="C510" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -12647,7 +12647,7 @@
         <v>98</v>
       </c>
       <c r="C511" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
@@ -12658,7 +12658,7 @@
         <v>98</v>
       </c>
       <c r="C512" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -12669,18 +12669,18 @@
         <v>98</v>
       </c>
       <c r="C513" s="16" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B514" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C514" s="20" t="s">
-        <v>140</v>
+      <c r="B514" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C514" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -12691,7 +12691,7 @@
         <v>141</v>
       </c>
       <c r="C515" s="20" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -12702,7 +12702,7 @@
         <v>141</v>
       </c>
       <c r="C516" s="20" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -12710,10 +12710,10 @@
         <v>139</v>
       </c>
       <c r="B517" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C517" s="14" t="s">
-        <v>51</v>
+        <v>141</v>
+      </c>
+      <c r="C517" s="20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
@@ -12723,8 +12723,8 @@
       <c r="B518" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C518" s="20" t="s">
-        <v>52</v>
+      <c r="C518" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -12735,7 +12735,7 @@
         <v>77</v>
       </c>
       <c r="C519" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
@@ -12746,7 +12746,7 @@
         <v>77</v>
       </c>
       <c r="C520" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -12757,7 +12757,7 @@
         <v>77</v>
       </c>
       <c r="C521" s="20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -12768,7 +12768,7 @@
         <v>77</v>
       </c>
       <c r="C522" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -12778,8 +12778,8 @@
       <c r="B523" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C523" s="14" t="s">
-        <v>55</v>
+      <c r="C523" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -12789,19 +12789,19 @@
       <c r="B524" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C524" s="20" t="s">
+      <c r="C524" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B525" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C525" s="20" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A525" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B525" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C525" s="16" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -12812,7 +12812,7 @@
         <v>173</v>
       </c>
       <c r="C526" s="16" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -12823,7 +12823,7 @@
         <v>173</v>
       </c>
       <c r="C527" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -12834,7 +12834,7 @@
         <v>173</v>
       </c>
       <c r="C528" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -12845,7 +12845,7 @@
         <v>173</v>
       </c>
       <c r="C529" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
@@ -12856,7 +12856,7 @@
         <v>173</v>
       </c>
       <c r="C530" s="16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -12867,7 +12867,7 @@
         <v>173</v>
       </c>
       <c r="C531" s="16" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
@@ -12878,7 +12878,7 @@
         <v>173</v>
       </c>
       <c r="C532" s="16" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -12886,10 +12886,10 @@
         <v>142</v>
       </c>
       <c r="B533" s="16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C533" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -12899,8 +12899,8 @@
       <c r="B534" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C534" s="25" t="s">
-        <v>165</v>
+      <c r="C534" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
@@ -12908,10 +12908,10 @@
         <v>142</v>
       </c>
       <c r="B535" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C535" s="16" t="s">
-        <v>167</v>
+        <v>178</v>
+      </c>
+      <c r="C535" s="25" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
@@ -12919,10 +12919,10 @@
         <v>142</v>
       </c>
       <c r="B536" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C536" s="16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -12933,7 +12933,7 @@
         <v>177</v>
       </c>
       <c r="C537" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -12944,7 +12944,7 @@
         <v>177</v>
       </c>
       <c r="C538" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -12955,7 +12955,7 @@
         <v>177</v>
       </c>
       <c r="C539" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -12965,8 +12965,8 @@
       <c r="B540" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C540" s="25" t="s">
-        <v>163</v>
+      <c r="C540" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -12974,10 +12974,10 @@
         <v>142</v>
       </c>
       <c r="B541" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C541" s="16" t="s">
-        <v>156</v>
+        <v>177</v>
+      </c>
+      <c r="C541" s="25" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
@@ -12985,10 +12985,10 @@
         <v>142</v>
       </c>
       <c r="B542" s="16" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C542" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -12996,10 +12996,10 @@
         <v>142</v>
       </c>
       <c r="B543" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C543" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
@@ -13010,7 +13010,7 @@
         <v>175</v>
       </c>
       <c r="C544" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -13021,29 +13021,29 @@
         <v>175</v>
       </c>
       <c r="C545" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B546" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C546" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A546" t="s">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
         <v>143</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B547" t="s">
         <v>98</v>
       </c>
-      <c r="C546" s="4" t="s">
+      <c r="C547" s="4" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A547" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B547" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C547" s="16" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
@@ -13051,10 +13051,10 @@
         <v>168</v>
       </c>
       <c r="B548" s="16" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="C548" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
@@ -13062,10 +13062,10 @@
         <v>168</v>
       </c>
       <c r="B549" s="16" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="C549" s="16" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
@@ -13076,7 +13076,7 @@
         <v>5</v>
       </c>
       <c r="C550" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -13087,7 +13087,7 @@
         <v>5</v>
       </c>
       <c r="C551" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -13095,10 +13095,10 @@
         <v>168</v>
       </c>
       <c r="B552" s="16" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C552" s="16" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
@@ -13109,6 +13109,17 @@
         <v>79</v>
       </c>
       <c r="C553" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B554" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C554" s="16" t="s">
         <v>62</v>
       </c>
     </row>
